--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Calca-Calcr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Calca-Calcr.xlsx
@@ -522,34 +522,34 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.08856766666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.265703</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.395701</v>
-      </c>
-      <c r="H2">
-        <v>1.187103</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.440024666666667</v>
+        <v>10.41202966666667</v>
       </c>
       <c r="N2">
-        <v>19.320074</v>
+        <v>31.236089</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -558,10 +558,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>2.548324200624667</v>
+        <v>0.9221691728407778</v>
       </c>
       <c r="R2">
-        <v>22.934917805622</v>
+        <v>8.299522555567</v>
       </c>
       <c r="S2">
         <v>1</v>
